--- a/doc/hallmarks_table_eric.xlsx
+++ b/doc/hallmarks_table_eric.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericbf10/Desktop/MSc-thesis-project-Eric/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CE8D78-8182-254F-8589-3AF6D21651BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2E2272-FD7E-7340-B522-B38356954EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" xr2:uid="{F68FF77E-BC72-4733-9EA2-701F515997BA}"/>
   </bookViews>
@@ -1412,9 +1412,6 @@
     <t>Thomson</t>
   </si>
   <si>
-    <t>IP subunit by PSMB8 and PSMB9</t>
-  </si>
-  <si>
     <t>normCounts/TPM</t>
   </si>
   <si>
@@ -2158,6 +2155,9 @@
   </si>
   <si>
     <t>tumor infiltrating Tregs</t>
+  </si>
+  <si>
+    <t>IP Kalaora</t>
   </si>
 </sst>
 </file>
@@ -2884,8 +2884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E11053-C987-4806-98B8-1C4126C7FCD5}">
   <dimension ref="A1:AD254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H109" sqref="H109"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6118,16 +6118,16 @@
     </row>
     <row r="98" spans="1:30" s="15" customFormat="1" ht="24">
       <c r="A98" s="13" t="s">
+        <v>560</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="B98" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C98" s="13" t="s">
+      <c r="D98" s="13" t="s">
         <v>323</v>
-      </c>
-      <c r="D98" s="13" t="s">
-        <v>324</v>
       </c>
       <c r="E98" s="13"/>
       <c r="F98" s="13"/>
@@ -6136,7 +6136,7 @@
         <v>60</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J98" s="13" t="s">
         <v>157</v>
@@ -6145,10 +6145,10 @@
         <v>23</v>
       </c>
       <c r="L98" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="M98" s="14" t="s">
         <v>326</v>
-      </c>
-      <c r="M98" s="14" t="s">
-        <v>327</v>
       </c>
       <c r="N98" s="13"/>
       <c r="O98" s="13"/>
@@ -6170,19 +6170,19 @@
     </row>
     <row r="99" spans="1:30">
       <c r="A99" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B99" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" t="s">
         <v>328</v>
       </c>
-      <c r="B99" t="s">
-        <v>15</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>329</v>
       </c>
-      <c r="D99" t="s">
+      <c r="F99" t="s">
         <v>330</v>
-      </c>
-      <c r="F99" t="s">
-        <v>331</v>
       </c>
       <c r="G99" t="s">
         <v>149</v>
@@ -6194,214 +6194,214 @@
         <v>103</v>
       </c>
       <c r="L99" t="s">
+        <v>330</v>
+      </c>
+      <c r="M99" s="4" t="s">
         <v>331</v>
-      </c>
-      <c r="M99" s="4" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="100" spans="1:30" s="13" customFormat="1">
       <c r="A100" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="B100" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C100" s="13" t="s">
+      <c r="D100" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="D100" s="13" t="s">
+      <c r="E100" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="E100" s="13" t="s">
+      <c r="F100" s="13" t="s">
         <v>336</v>
-      </c>
-      <c r="F100" s="13" t="s">
-        <v>337</v>
       </c>
       <c r="H100" s="13" t="s">
         <v>60</v>
       </c>
       <c r="M100" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="N100" s="13" t="s">
         <v>338</v>
-      </c>
-      <c r="N100" s="13" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="101" spans="1:30">
       <c r="A101" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B101" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101" t="s">
         <v>340</v>
-      </c>
-      <c r="B101" t="s">
-        <v>15</v>
-      </c>
-      <c r="C101" t="s">
-        <v>25</v>
-      </c>
-      <c r="D101" t="s">
-        <v>341</v>
       </c>
       <c r="M101" s="4"/>
       <c r="N101" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="102" spans="1:30" s="13" customFormat="1" ht="16">
       <c r="A102" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D102" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="B102" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C102" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D102" s="13" t="s">
+      <c r="E102" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="E102" s="13" t="s">
+      <c r="F102" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="F102" s="13" t="s">
+      <c r="H102" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="H102" s="13" t="s">
+      <c r="I102" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="I102" s="13" t="s">
+      <c r="L102" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="L102" s="13" t="s">
+      <c r="M102" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="M102" s="14" t="s">
+      <c r="N102" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="N102" s="13" t="s">
+      <c r="O102" s="13" t="s">
         <v>351</v>
-      </c>
-      <c r="O102" s="13" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="103" spans="1:30" s="13" customFormat="1" ht="16">
       <c r="A103" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="F103" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="H103" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="I103" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="L103" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="B103" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C103" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D103" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="E103" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="F103" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="H103" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="I103" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="L103" s="13" t="s">
+      <c r="M103" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="N103" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="M103" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="N103" s="13" t="s">
-        <v>355</v>
-      </c>
       <c r="O103" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="104" spans="1:30" s="13" customFormat="1" ht="16">
       <c r="A104" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="F104" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="H104" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="I104" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="L104" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="M104" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="N104" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="B104" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C104" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D104" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="E104" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="F104" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="H104" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="I104" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="L104" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="M104" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="N104" s="13" t="s">
-        <v>357</v>
-      </c>
       <c r="O104" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="105" spans="1:30" s="13" customFormat="1" ht="16">
       <c r="A105" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="F105" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="H105" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="I105" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="L105" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="M105" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="N105" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="B105" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D105" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="E105" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="F105" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="H105" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="I105" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="L105" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="M105" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="N105" s="13" t="s">
-        <v>359</v>
-      </c>
       <c r="O105" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="106" spans="1:30" s="13" customFormat="1" ht="16">
       <c r="A106" s="13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B106" s="13" t="s">
         <v>15</v>
@@ -6410,36 +6410,36 @@
         <v>25</v>
       </c>
       <c r="D106" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="E106" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="E106" s="13" t="s">
+      <c r="F106" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="F106" s="13" t="s">
+      <c r="H106" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="H106" s="13" t="s">
+      <c r="I106" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="I106" s="13" t="s">
-        <v>348</v>
-      </c>
       <c r="L106" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M106" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N106" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O106" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="107" spans="1:30" s="13" customFormat="1" ht="16">
       <c r="A107" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B107" s="13" t="s">
         <v>15</v>
@@ -6448,36 +6448,36 @@
         <v>25</v>
       </c>
       <c r="D107" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="E107" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="E107" s="13" t="s">
+      <c r="F107" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="F107" s="13" t="s">
+      <c r="H107" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="H107" s="13" t="s">
+      <c r="I107" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="I107" s="13" t="s">
-        <v>348</v>
-      </c>
       <c r="L107" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M107" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N107" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O107" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="108" spans="1:30" s="13" customFormat="1" ht="16">
       <c r="A108" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B108" s="13" t="s">
         <v>15</v>
@@ -6486,226 +6486,226 @@
         <v>25</v>
       </c>
       <c r="D108" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="E108" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="E108" s="13" t="s">
+      <c r="F108" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="F108" s="13" t="s">
+      <c r="H108" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="H108" s="13" t="s">
+      <c r="I108" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="I108" s="13" t="s">
-        <v>348</v>
-      </c>
       <c r="L108" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M108" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N108" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O108" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="109" spans="1:30" s="13" customFormat="1" ht="16">
       <c r="A109" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="E109" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="F109" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="H109" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="I109" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="L109" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="M109" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="N109" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="B109" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C109" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D109" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="E109" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="F109" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="H109" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="I109" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="L109" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="M109" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="N109" s="13" t="s">
-        <v>364</v>
-      </c>
       <c r="O109" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="110" spans="1:30" s="13" customFormat="1" ht="16">
       <c r="A110" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="E110" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="F110" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="H110" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="I110" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="L110" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="M110" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="N110" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="B110" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C110" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D110" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="E110" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="F110" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="H110" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="I110" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="L110" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="M110" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="N110" s="13" t="s">
-        <v>366</v>
-      </c>
       <c r="O110" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="111" spans="1:30" s="13" customFormat="1" ht="16">
       <c r="A111" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="B111" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D111" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="E111" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="F111" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="H111" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="I111" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="L111" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="M111" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="N111" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="B111" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C111" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D111" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="E111" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="F111" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="H111" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="I111" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="L111" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="M111" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="N111" s="13" t="s">
-        <v>368</v>
-      </c>
       <c r="O111" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="112" spans="1:30" s="13" customFormat="1" ht="16">
       <c r="A112" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="E112" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="F112" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="H112" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="I112" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="L112" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="M112" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="N112" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="B112" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C112" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D112" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="E112" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="F112" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="H112" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="I112" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="L112" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="M112" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="N112" s="13" t="s">
-        <v>370</v>
-      </c>
       <c r="O112" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="113" spans="1:15" s="13" customFormat="1" ht="16">
       <c r="A113" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D113" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="E113" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="F113" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="H113" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="I113" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="L113" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="M113" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="N113" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="B113" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C113" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D113" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="E113" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="F113" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="H113" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="I113" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="L113" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="M113" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="N113" s="13" t="s">
-        <v>372</v>
-      </c>
       <c r="O113" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="114" spans="1:15" s="13" customFormat="1" ht="16">
       <c r="A114" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B114" s="13" t="s">
         <v>15</v>
@@ -6714,36 +6714,36 @@
         <v>25</v>
       </c>
       <c r="D114" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="E114" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="E114" s="13" t="s">
+      <c r="F114" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="F114" s="13" t="s">
+      <c r="H114" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="H114" s="13" t="s">
+      <c r="I114" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="I114" s="13" t="s">
-        <v>348</v>
-      </c>
       <c r="L114" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M114" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N114" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O114" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="115" spans="1:15" s="13" customFormat="1" ht="16">
       <c r="A115" s="13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B115" s="13" t="s">
         <v>15</v>
@@ -6752,36 +6752,36 @@
         <v>25</v>
       </c>
       <c r="D115" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="E115" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="E115" s="13" t="s">
+      <c r="F115" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="F115" s="13" t="s">
+      <c r="H115" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="H115" s="13" t="s">
+      <c r="I115" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="I115" s="13" t="s">
-        <v>348</v>
-      </c>
       <c r="L115" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M115" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N115" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O115" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="116" spans="1:15" s="13" customFormat="1" ht="16">
       <c r="A116" s="13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B116" s="13" t="s">
         <v>15</v>
@@ -6790,36 +6790,36 @@
         <v>25</v>
       </c>
       <c r="D116" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="E116" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="E116" s="13" t="s">
+      <c r="F116" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="F116" s="13" t="s">
+      <c r="H116" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="H116" s="13" t="s">
+      <c r="I116" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="I116" s="13" t="s">
-        <v>348</v>
-      </c>
       <c r="L116" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M116" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N116" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O116" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="117" spans="1:15" s="13" customFormat="1" ht="16">
       <c r="A117" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B117" s="13" t="s">
         <v>15</v>
@@ -6828,36 +6828,36 @@
         <v>25</v>
       </c>
       <c r="D117" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="E117" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="E117" s="13" t="s">
+      <c r="F117" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="F117" s="13" t="s">
+      <c r="H117" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="H117" s="13" t="s">
+      <c r="I117" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="I117" s="13" t="s">
-        <v>348</v>
-      </c>
       <c r="L117" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M117" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N117" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O117" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="118" spans="1:15" s="13" customFormat="1" ht="16">
       <c r="A118" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B118" s="13" t="s">
         <v>15</v>
@@ -6866,36 +6866,36 @@
         <v>25</v>
       </c>
       <c r="D118" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="E118" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="E118" s="13" t="s">
+      <c r="F118" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="F118" s="13" t="s">
+      <c r="H118" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="H118" s="13" t="s">
+      <c r="I118" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="I118" s="13" t="s">
-        <v>348</v>
-      </c>
       <c r="L118" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M118" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N118" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O118" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="119" spans="1:15" s="13" customFormat="1" ht="16">
       <c r="A119" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B119" s="13" t="s">
         <v>15</v>
@@ -6904,36 +6904,36 @@
         <v>25</v>
       </c>
       <c r="D119" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="E119" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="E119" s="13" t="s">
+      <c r="F119" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="F119" s="13" t="s">
+      <c r="H119" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="H119" s="13" t="s">
+      <c r="I119" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="I119" s="13" t="s">
-        <v>348</v>
-      </c>
       <c r="L119" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M119" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N119" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O119" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="120" spans="1:15" s="13" customFormat="1" ht="16">
       <c r="A120" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B120" s="13" t="s">
         <v>15</v>
@@ -6942,36 +6942,36 @@
         <v>25</v>
       </c>
       <c r="D120" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="E120" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="E120" s="13" t="s">
+      <c r="F120" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="F120" s="13" t="s">
+      <c r="H120" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="H120" s="13" t="s">
+      <c r="I120" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="I120" s="13" t="s">
-        <v>348</v>
-      </c>
       <c r="L120" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M120" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N120" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O120" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="121" spans="1:15" s="13" customFormat="1" ht="16">
       <c r="A121" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B121" s="13" t="s">
         <v>15</v>
@@ -6980,36 +6980,36 @@
         <v>25</v>
       </c>
       <c r="D121" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="E121" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="E121" s="13" t="s">
+      <c r="F121" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="F121" s="13" t="s">
+      <c r="H121" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="H121" s="13" t="s">
+      <c r="I121" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="I121" s="13" t="s">
-        <v>348</v>
-      </c>
       <c r="L121" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M121" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N121" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O121" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="122" spans="1:15" s="13" customFormat="1" ht="16">
       <c r="A122" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B122" s="13" t="s">
         <v>15</v>
@@ -7018,150 +7018,150 @@
         <v>25</v>
       </c>
       <c r="D122" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="E122" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="E122" s="13" t="s">
+      <c r="F122" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="F122" s="13" t="s">
+      <c r="H122" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="H122" s="13" t="s">
+      <c r="I122" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="I122" s="13" t="s">
-        <v>348</v>
-      </c>
       <c r="L122" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M122" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N122" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O122" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="123" spans="1:15" s="13" customFormat="1" ht="16">
       <c r="A123" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D123" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="E123" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="F123" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="H123" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="I123" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="L123" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="M123" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="N123" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="B123" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C123" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D123" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="E123" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="F123" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="H123" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="I123" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="L123" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="M123" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="N123" s="13" t="s">
-        <v>383</v>
-      </c>
       <c r="O123" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="124" spans="1:15" s="13" customFormat="1" ht="16">
       <c r="A124" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="B124" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D124" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="E124" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="F124" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="H124" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="I124" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="L124" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="M124" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="N124" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="B124" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C124" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D124" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="E124" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="F124" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="H124" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="I124" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="L124" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="M124" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="N124" s="13" t="s">
-        <v>385</v>
-      </c>
       <c r="O124" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="125" spans="1:15" s="13" customFormat="1" ht="16">
       <c r="A125" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="B125" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D125" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="E125" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="F125" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="H125" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="I125" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="L125" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="M125" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="N125" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="B125" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C125" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D125" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="E125" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="F125" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="H125" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="I125" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="L125" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="M125" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="N125" s="13" t="s">
-        <v>387</v>
-      </c>
       <c r="O125" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="126" spans="1:15" ht="16">
       <c r="A126" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B126" t="s">
         <v>15</v>
@@ -7170,669 +7170,669 @@
         <v>25</v>
       </c>
       <c r="D126" t="s">
+        <v>343</v>
+      </c>
+      <c r="E126" t="s">
         <v>344</v>
       </c>
-      <c r="E126" t="s">
+      <c r="F126" t="s">
         <v>345</v>
       </c>
-      <c r="F126" t="s">
+      <c r="H126" t="s">
         <v>346</v>
       </c>
-      <c r="H126" t="s">
+      <c r="I126" t="s">
         <v>347</v>
       </c>
-      <c r="I126" t="s">
-        <v>348</v>
-      </c>
       <c r="L126" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M126" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N126" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O126" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="127" spans="1:15">
       <c r="A127" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B127" t="s">
+        <v>15</v>
+      </c>
+      <c r="C127" t="s">
+        <v>333</v>
+      </c>
+      <c r="D127" t="s">
         <v>389</v>
       </c>
-      <c r="B127" t="s">
-        <v>15</v>
-      </c>
-      <c r="C127" t="s">
-        <v>334</v>
-      </c>
-      <c r="D127" t="s">
+      <c r="E127" t="s">
+        <v>389</v>
+      </c>
+      <c r="L127" t="s">
         <v>390</v>
       </c>
-      <c r="E127" t="s">
-        <v>390</v>
-      </c>
-      <c r="L127" t="s">
+      <c r="M127" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="M127" s="4" t="s">
+      <c r="N127" t="s">
         <v>392</v>
-      </c>
-      <c r="N127" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="128" spans="1:15">
       <c r="A128" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B128" t="s">
+        <v>15</v>
+      </c>
+      <c r="C128" t="s">
+        <v>333</v>
+      </c>
+      <c r="E128" t="s">
         <v>394</v>
       </c>
-      <c r="B128" t="s">
-        <v>15</v>
-      </c>
-      <c r="C128" t="s">
-        <v>334</v>
-      </c>
-      <c r="E128" t="s">
+      <c r="F128" t="s">
         <v>395</v>
-      </c>
-      <c r="F128" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="129" spans="1:14" s="13" customFormat="1">
       <c r="A129" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B129" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E129" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B130" t="s">
+        <v>15</v>
+      </c>
+      <c r="C130" t="s">
+        <v>333</v>
+      </c>
+      <c r="E130" t="s">
         <v>398</v>
       </c>
-      <c r="B130" t="s">
-        <v>15</v>
-      </c>
-      <c r="C130" t="s">
-        <v>334</v>
-      </c>
-      <c r="E130" t="s">
+      <c r="L130" t="s">
         <v>399</v>
       </c>
-      <c r="L130" t="s">
+      <c r="M130" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="M130" s="4" t="s">
+      <c r="N130" t="s">
         <v>401</v>
-      </c>
-      <c r="N130" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="131" spans="1:14">
       <c r="A131" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B131" t="s">
         <v>15</v>
       </c>
       <c r="C131" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E131" t="s">
+        <v>398</v>
+      </c>
+      <c r="L131" t="s">
         <v>399</v>
       </c>
-      <c r="L131" t="s">
+      <c r="M131" t="s">
         <v>400</v>
       </c>
-      <c r="M131" t="s">
+      <c r="N131" t="s">
         <v>401</v>
-      </c>
-      <c r="N131" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B132" t="s">
         <v>15</v>
       </c>
       <c r="C132" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E132" t="s">
+        <v>398</v>
+      </c>
+      <c r="L132" t="s">
         <v>399</v>
       </c>
-      <c r="L132" t="s">
+      <c r="M132" t="s">
         <v>400</v>
       </c>
-      <c r="M132" t="s">
+      <c r="N132" t="s">
         <v>401</v>
-      </c>
-      <c r="N132" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B133" t="s">
         <v>15</v>
       </c>
       <c r="C133" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E133" t="s">
+        <v>398</v>
+      </c>
+      <c r="L133" t="s">
         <v>399</v>
       </c>
-      <c r="L133" t="s">
+      <c r="M133" t="s">
         <v>400</v>
       </c>
-      <c r="M133" t="s">
+      <c r="N133" t="s">
         <v>401</v>
-      </c>
-      <c r="N133" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B134" t="s">
         <v>15</v>
       </c>
       <c r="C134" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E134" t="s">
+        <v>398</v>
+      </c>
+      <c r="L134" t="s">
         <v>399</v>
       </c>
-      <c r="L134" t="s">
+      <c r="M134" t="s">
         <v>400</v>
       </c>
-      <c r="M134" t="s">
+      <c r="N134" t="s">
         <v>401</v>
-      </c>
-      <c r="N134" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B135" t="s">
         <v>15</v>
       </c>
       <c r="C135" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E135" t="s">
+        <v>398</v>
+      </c>
+      <c r="L135" t="s">
         <v>399</v>
       </c>
-      <c r="L135" t="s">
+      <c r="M135" t="s">
         <v>400</v>
       </c>
-      <c r="M135" t="s">
+      <c r="N135" t="s">
         <v>401</v>
-      </c>
-      <c r="N135" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B136" t="s">
         <v>15</v>
       </c>
       <c r="C136" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E136" t="s">
+        <v>398</v>
+      </c>
+      <c r="L136" t="s">
         <v>399</v>
       </c>
-      <c r="L136" t="s">
+      <c r="M136" t="s">
         <v>400</v>
       </c>
-      <c r="M136" t="s">
+      <c r="N136" t="s">
         <v>401</v>
-      </c>
-      <c r="N136" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B137" t="s">
         <v>15</v>
       </c>
       <c r="C137" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E137" t="s">
+        <v>398</v>
+      </c>
+      <c r="L137" t="s">
         <v>399</v>
       </c>
-      <c r="L137" t="s">
+      <c r="M137" t="s">
         <v>400</v>
       </c>
-      <c r="M137" t="s">
+      <c r="N137" t="s">
         <v>401</v>
-      </c>
-      <c r="N137" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B138" t="s">
         <v>15</v>
       </c>
       <c r="C138" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E138" t="s">
+        <v>398</v>
+      </c>
+      <c r="L138" t="s">
         <v>399</v>
       </c>
-      <c r="L138" t="s">
+      <c r="M138" t="s">
         <v>400</v>
       </c>
-      <c r="M138" t="s">
+      <c r="N138" t="s">
         <v>401</v>
-      </c>
-      <c r="N138" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="139" spans="1:14">
       <c r="A139" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B139" t="s">
         <v>15</v>
       </c>
       <c r="C139" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E139" t="s">
+        <v>398</v>
+      </c>
+      <c r="L139" t="s">
         <v>399</v>
       </c>
-      <c r="L139" t="s">
+      <c r="M139" t="s">
         <v>400</v>
       </c>
-      <c r="M139" t="s">
+      <c r="N139" t="s">
         <v>401</v>
-      </c>
-      <c r="N139" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B140" t="s">
         <v>15</v>
       </c>
       <c r="C140" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E140" t="s">
+        <v>398</v>
+      </c>
+      <c r="L140" t="s">
         <v>399</v>
       </c>
-      <c r="L140" t="s">
+      <c r="M140" t="s">
         <v>400</v>
       </c>
-      <c r="M140" t="s">
+      <c r="N140" t="s">
         <v>401</v>
-      </c>
-      <c r="N140" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B141" t="s">
         <v>15</v>
       </c>
       <c r="C141" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E141" t="s">
+        <v>398</v>
+      </c>
+      <c r="L141" t="s">
         <v>399</v>
       </c>
-      <c r="L141" t="s">
+      <c r="M141" t="s">
         <v>400</v>
       </c>
-      <c r="M141" t="s">
+      <c r="N141" t="s">
         <v>401</v>
-      </c>
-      <c r="N141" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B142" t="s">
         <v>15</v>
       </c>
       <c r="C142" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E142" t="s">
+        <v>398</v>
+      </c>
+      <c r="L142" t="s">
         <v>399</v>
       </c>
-      <c r="L142" t="s">
+      <c r="M142" t="s">
         <v>400</v>
       </c>
-      <c r="M142" t="s">
+      <c r="N142" t="s">
         <v>401</v>
-      </c>
-      <c r="N142" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="143" spans="1:14">
       <c r="A143" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B143" t="s">
         <v>15</v>
       </c>
       <c r="C143" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E143" t="s">
+        <v>398</v>
+      </c>
+      <c r="L143" t="s">
         <v>399</v>
       </c>
-      <c r="L143" t="s">
+      <c r="M143" t="s">
         <v>400</v>
       </c>
-      <c r="M143" t="s">
+      <c r="N143" t="s">
         <v>401</v>
-      </c>
-      <c r="N143" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B144" t="s">
         <v>15</v>
       </c>
       <c r="C144" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E144" t="s">
+        <v>398</v>
+      </c>
+      <c r="L144" t="s">
         <v>399</v>
       </c>
-      <c r="L144" t="s">
+      <c r="M144" t="s">
         <v>400</v>
       </c>
-      <c r="M144" t="s">
+      <c r="N144" t="s">
         <v>401</v>
-      </c>
-      <c r="N144" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="145" spans="1:15">
       <c r="A145" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B145" t="s">
         <v>15</v>
       </c>
       <c r="C145" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E145" t="s">
+        <v>398</v>
+      </c>
+      <c r="L145" t="s">
         <v>399</v>
       </c>
-      <c r="L145" t="s">
+      <c r="M145" t="s">
         <v>400</v>
       </c>
-      <c r="M145" t="s">
+      <c r="N145" t="s">
         <v>401</v>
-      </c>
-      <c r="N145" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="146" spans="1:15">
       <c r="A146" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B146" t="s">
         <v>15</v>
       </c>
       <c r="C146" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E146" t="s">
+        <v>398</v>
+      </c>
+      <c r="L146" t="s">
         <v>399</v>
       </c>
-      <c r="L146" t="s">
+      <c r="M146" t="s">
         <v>400</v>
       </c>
-      <c r="M146" t="s">
+      <c r="N146" t="s">
         <v>401</v>
-      </c>
-      <c r="N146" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="147" spans="1:15">
       <c r="A147" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B147" t="s">
         <v>15</v>
       </c>
       <c r="C147" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E147" t="s">
+        <v>398</v>
+      </c>
+      <c r="L147" t="s">
         <v>399</v>
       </c>
-      <c r="L147" t="s">
+      <c r="M147" t="s">
         <v>400</v>
       </c>
-      <c r="M147" t="s">
+      <c r="N147" t="s">
         <v>401</v>
-      </c>
-      <c r="N147" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="148" spans="1:15">
       <c r="A148" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B148" t="s">
         <v>15</v>
       </c>
       <c r="C148" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E148" t="s">
+        <v>398</v>
+      </c>
+      <c r="L148" t="s">
         <v>399</v>
       </c>
-      <c r="L148" t="s">
+      <c r="M148" t="s">
         <v>400</v>
       </c>
-      <c r="M148" t="s">
+      <c r="N148" t="s">
         <v>401</v>
-      </c>
-      <c r="N148" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="149" spans="1:15">
       <c r="A149" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B149" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149" t="s">
         <v>421</v>
       </c>
-      <c r="B149" t="s">
-        <v>15</v>
-      </c>
-      <c r="D149" t="s">
-        <v>422</v>
-      </c>
       <c r="E149" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="150" spans="1:15">
       <c r="A150" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B150" t="s">
         <v>15</v>
       </c>
       <c r="D150" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E150" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="151" spans="1:15">
       <c r="A151" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B151" t="s">
         <v>15</v>
       </c>
       <c r="D151" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E151" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="152" spans="1:15">
       <c r="A152" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B152" t="s">
         <v>15</v>
       </c>
       <c r="D152" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E152" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="153" spans="1:15">
       <c r="A153" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B153" t="s">
         <v>15</v>
       </c>
       <c r="D153" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E153" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="154" spans="1:15">
       <c r="A154" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B154" t="s">
         <v>15</v>
       </c>
       <c r="D154" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E154" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="155" spans="1:15">
       <c r="A155" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B155" t="s">
+        <v>15</v>
+      </c>
+      <c r="C155" t="s">
         <v>428</v>
       </c>
-      <c r="B155" t="s">
-        <v>15</v>
-      </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
         <v>429</v>
       </c>
-      <c r="D155" t="s">
+      <c r="E155" t="s">
         <v>430</v>
       </c>
-      <c r="E155" t="s">
+      <c r="L155" t="s">
         <v>431</v>
       </c>
-      <c r="L155" t="s">
+      <c r="M155" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="M155" s="4" t="s">
+      <c r="N155" t="s">
         <v>433</v>
       </c>
-      <c r="N155" t="s">
+      <c r="O155" t="s">
         <v>434</v>
-      </c>
-      <c r="O155" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="156" spans="1:15">
       <c r="A156" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B156" t="s">
+        <v>15</v>
+      </c>
+      <c r="C156" t="s">
+        <v>428</v>
+      </c>
+      <c r="D156" t="s">
         <v>436</v>
       </c>
-      <c r="B156" t="s">
-        <v>15</v>
-      </c>
-      <c r="C156" t="s">
-        <v>429</v>
-      </c>
-      <c r="D156" t="s">
+      <c r="E156" t="s">
         <v>437</v>
       </c>
-      <c r="E156" t="s">
+      <c r="L156" t="s">
         <v>438</v>
       </c>
-      <c r="L156" t="s">
+      <c r="M156" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="M156" s="4" t="s">
+      <c r="N156" t="s">
         <v>440</v>
-      </c>
-      <c r="N156" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="157" spans="1:15">
       <c r="A157" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B157" t="s">
         <v>15</v>
@@ -7844,18 +7844,18 @@
         <v>212</v>
       </c>
       <c r="E157" t="s">
+        <v>442</v>
+      </c>
+      <c r="F157" t="s">
         <v>443</v>
       </c>
-      <c r="F157" t="s">
-        <v>444</v>
-      </c>
       <c r="H157" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="158" spans="1:15">
       <c r="A158" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B158" t="s">
         <v>15</v>
@@ -7867,15 +7867,15 @@
         <v>212</v>
       </c>
       <c r="E158" t="s">
+        <v>442</v>
+      </c>
+      <c r="F158" t="s">
         <v>443</v>
-      </c>
-      <c r="F158" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="159" spans="1:15">
       <c r="A159" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B159" t="s">
         <v>15</v>
@@ -7887,15 +7887,15 @@
         <v>212</v>
       </c>
       <c r="E159" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F159" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="160" spans="1:15">
       <c r="A160" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B160" t="s">
         <v>15</v>
@@ -7907,15 +7907,15 @@
         <v>212</v>
       </c>
       <c r="E160" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F160" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="161" spans="1:14">
       <c r="A161" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B161" t="s">
         <v>15</v>
@@ -7927,12 +7927,12 @@
         <v>212</v>
       </c>
       <c r="E161" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B162" t="s">
         <v>15</v>
@@ -7944,12 +7944,12 @@
         <v>212</v>
       </c>
       <c r="E162" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="163" spans="1:14">
       <c r="A163" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B163" t="s">
         <v>15</v>
@@ -7961,21 +7961,21 @@
         <v>212</v>
       </c>
       <c r="E163" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F163" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M163" t="s">
+        <v>451</v>
+      </c>
+      <c r="N163" t="s">
         <v>452</v>
-      </c>
-      <c r="N163" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="164" spans="1:14">
       <c r="A164" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B164" t="s">
         <v>15</v>
@@ -7987,15 +7987,15 @@
         <v>212</v>
       </c>
       <c r="E164" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F164" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="165" spans="1:14">
       <c r="A165" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B165" t="s">
         <v>15</v>
@@ -8007,15 +8007,15 @@
         <v>212</v>
       </c>
       <c r="E165" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F165" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="166" spans="1:14">
       <c r="A166" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B166" t="s">
         <v>15</v>
@@ -8027,15 +8027,15 @@
         <v>212</v>
       </c>
       <c r="E166" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F166" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="167" spans="1:14">
       <c r="A167" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B167" t="s">
         <v>15</v>
@@ -8047,15 +8047,15 @@
         <v>212</v>
       </c>
       <c r="E167" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F167" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="168" spans="1:14">
       <c r="A168" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B168" t="s">
         <v>15</v>
@@ -8067,7 +8067,7 @@
         <v>212</v>
       </c>
       <c r="E168" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F168" t="s">
         <v>164</v>
@@ -8075,7 +8075,7 @@
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B169" t="s">
         <v>15</v>
@@ -8087,7 +8087,7 @@
         <v>212</v>
       </c>
       <c r="E169" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F169" t="s">
         <v>164</v>
@@ -8095,7 +8095,7 @@
     </row>
     <row r="170" spans="1:14">
       <c r="A170" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B170" t="s">
         <v>15</v>
@@ -8107,7 +8107,7 @@
         <v>212</v>
       </c>
       <c r="E170" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F170" t="s">
         <v>164</v>
@@ -8115,7 +8115,7 @@
     </row>
     <row r="171" spans="1:14">
       <c r="A171" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B171" t="s">
         <v>15</v>
@@ -8127,7 +8127,7 @@
         <v>212</v>
       </c>
       <c r="E171" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F171" t="s">
         <v>164</v>
@@ -8135,7 +8135,7 @@
     </row>
     <row r="172" spans="1:14">
       <c r="A172" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B172" t="s">
         <v>15</v>
@@ -8147,15 +8147,15 @@
         <v>212</v>
       </c>
       <c r="E172" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F172" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="173" spans="1:14">
       <c r="A173" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B173" t="s">
         <v>15</v>
@@ -8167,15 +8167,15 @@
         <v>212</v>
       </c>
       <c r="E173" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F173" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="174" spans="1:14">
       <c r="A174" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B174" t="s">
         <v>15</v>
@@ -8187,12 +8187,12 @@
         <v>212</v>
       </c>
       <c r="E174" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="175" spans="1:14">
       <c r="A175" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B175" t="s">
         <v>15</v>
@@ -8204,12 +8204,12 @@
         <v>212</v>
       </c>
       <c r="E175" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B176" t="s">
         <v>15</v>
@@ -8221,12 +8221,12 @@
         <v>212</v>
       </c>
       <c r="E176" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B177" t="s">
         <v>15</v>
@@ -8238,12 +8238,12 @@
         <v>212</v>
       </c>
       <c r="E177" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B178" t="s">
         <v>15</v>
@@ -8255,12 +8255,12 @@
         <v>212</v>
       </c>
       <c r="E178" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B179" t="s">
         <v>15</v>
@@ -8272,12 +8272,12 @@
         <v>212</v>
       </c>
       <c r="E179" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B180" t="s">
         <v>15</v>
@@ -8289,12 +8289,12 @@
         <v>212</v>
       </c>
       <c r="E180" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B181" t="s">
         <v>15</v>
@@ -8306,12 +8306,12 @@
         <v>212</v>
       </c>
       <c r="E181" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B182" t="s">
         <v>15</v>
@@ -8323,12 +8323,12 @@
         <v>212</v>
       </c>
       <c r="E182" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B183" t="s">
         <v>15</v>
@@ -8340,12 +8340,12 @@
         <v>212</v>
       </c>
       <c r="E183" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B184" t="s">
         <v>15</v>
@@ -8357,12 +8357,12 @@
         <v>212</v>
       </c>
       <c r="E184" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B185" t="s">
         <v>15</v>
@@ -8374,12 +8374,12 @@
         <v>212</v>
       </c>
       <c r="E185" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B186" t="s">
         <v>15</v>
@@ -8391,12 +8391,12 @@
         <v>212</v>
       </c>
       <c r="E186" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B187" t="s">
         <v>15</v>
@@ -8408,12 +8408,12 @@
         <v>212</v>
       </c>
       <c r="E187" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B188" t="s">
         <v>15</v>
@@ -8425,12 +8425,12 @@
         <v>212</v>
       </c>
       <c r="E188" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B189" t="s">
         <v>15</v>
@@ -8442,12 +8442,12 @@
         <v>212</v>
       </c>
       <c r="E189" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B190" t="s">
         <v>15</v>
@@ -8459,12 +8459,12 @@
         <v>212</v>
       </c>
       <c r="E190" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B191" t="s">
         <v>15</v>
@@ -8476,12 +8476,12 @@
         <v>212</v>
       </c>
       <c r="E191" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B192" t="s">
         <v>15</v>
@@ -8493,12 +8493,12 @@
         <v>212</v>
       </c>
       <c r="E192" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B193" t="s">
         <v>15</v>
@@ -8510,12 +8510,12 @@
         <v>212</v>
       </c>
       <c r="E193" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B194" t="s">
         <v>15</v>
@@ -8527,12 +8527,12 @@
         <v>212</v>
       </c>
       <c r="E194" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B195" t="s">
         <v>15</v>
@@ -8544,12 +8544,12 @@
         <v>212</v>
       </c>
       <c r="E195" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B196" t="s">
         <v>15</v>
@@ -8561,12 +8561,12 @@
         <v>212</v>
       </c>
       <c r="E196" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B197" t="s">
         <v>15</v>
@@ -8578,12 +8578,12 @@
         <v>212</v>
       </c>
       <c r="E197" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B198" t="s">
         <v>15</v>
@@ -8595,12 +8595,12 @@
         <v>212</v>
       </c>
       <c r="E198" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B199" t="s">
         <v>15</v>
@@ -8612,12 +8612,12 @@
         <v>212</v>
       </c>
       <c r="E199" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B200" t="s">
         <v>15</v>
@@ -8629,12 +8629,12 @@
         <v>212</v>
       </c>
       <c r="E200" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B201" t="s">
         <v>15</v>
@@ -8646,12 +8646,12 @@
         <v>212</v>
       </c>
       <c r="E201" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B202" t="s">
         <v>15</v>
@@ -8663,12 +8663,12 @@
         <v>212</v>
       </c>
       <c r="E202" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B203" t="s">
         <v>15</v>
@@ -8680,12 +8680,12 @@
         <v>212</v>
       </c>
       <c r="E203" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B204" t="s">
         <v>15</v>
@@ -8697,12 +8697,12 @@
         <v>212</v>
       </c>
       <c r="E204" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B205" t="s">
         <v>15</v>
@@ -8714,12 +8714,12 @@
         <v>212</v>
       </c>
       <c r="E205" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B206" t="s">
         <v>15</v>
@@ -8731,12 +8731,12 @@
         <v>212</v>
       </c>
       <c r="E206" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B207" t="s">
         <v>15</v>
@@ -8748,12 +8748,12 @@
         <v>212</v>
       </c>
       <c r="E207" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B208" t="s">
         <v>15</v>
@@ -8765,12 +8765,12 @@
         <v>212</v>
       </c>
       <c r="E208" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="209" spans="1:14">
       <c r="A209" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B209" t="s">
         <v>15</v>
@@ -8782,12 +8782,12 @@
         <v>212</v>
       </c>
       <c r="E209" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="210" spans="1:14">
       <c r="A210" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B210" t="s">
         <v>15</v>
@@ -8799,12 +8799,12 @@
         <v>212</v>
       </c>
       <c r="E210" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B211" t="s">
         <v>15</v>
@@ -8816,12 +8816,12 @@
         <v>212</v>
       </c>
       <c r="E211" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="212" spans="1:14">
       <c r="A212" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B212" t="s">
         <v>15</v>
@@ -8833,292 +8833,292 @@
         <v>212</v>
       </c>
       <c r="E212" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="213" spans="1:14">
       <c r="A213" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B213" t="s">
+        <v>15</v>
+      </c>
+      <c r="C213" t="s">
         <v>504</v>
       </c>
-      <c r="B213" t="s">
-        <v>15</v>
-      </c>
-      <c r="C213" t="s">
+      <c r="D213" t="s">
         <v>505</v>
-      </c>
-      <c r="D213" t="s">
-        <v>506</v>
       </c>
       <c r="E213" t="s">
         <v>174</v>
       </c>
       <c r="N213" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="214" spans="1:14">
       <c r="A214" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B214" t="s">
         <v>15</v>
       </c>
       <c r="C214" t="s">
+        <v>504</v>
+      </c>
+      <c r="D214" t="s">
         <v>505</v>
-      </c>
-      <c r="D214" t="s">
-        <v>506</v>
       </c>
       <c r="E214" t="s">
         <v>174</v>
       </c>
       <c r="N214" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B215" t="s">
         <v>15</v>
       </c>
       <c r="C215" t="s">
+        <v>504</v>
+      </c>
+      <c r="D215" t="s">
         <v>505</v>
-      </c>
-      <c r="D215" t="s">
-        <v>506</v>
       </c>
       <c r="E215" t="s">
         <v>174</v>
       </c>
       <c r="N215" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="216" spans="1:14">
       <c r="A216" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B216" t="s">
         <v>15</v>
       </c>
       <c r="C216" t="s">
+        <v>504</v>
+      </c>
+      <c r="D216" t="s">
         <v>505</v>
-      </c>
-      <c r="D216" t="s">
-        <v>506</v>
       </c>
       <c r="E216" t="s">
         <v>174</v>
       </c>
       <c r="N216" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B217" t="s">
         <v>15</v>
       </c>
       <c r="C217" t="s">
+        <v>504</v>
+      </c>
+      <c r="D217" t="s">
         <v>505</v>
-      </c>
-      <c r="D217" t="s">
-        <v>506</v>
       </c>
       <c r="E217" t="s">
         <v>174</v>
       </c>
       <c r="N217" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B218" t="s">
         <v>15</v>
       </c>
       <c r="C218" t="s">
+        <v>504</v>
+      </c>
+      <c r="D218" t="s">
         <v>505</v>
-      </c>
-      <c r="D218" t="s">
-        <v>506</v>
       </c>
       <c r="E218" t="s">
         <v>174</v>
       </c>
       <c r="N218" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B219" t="s">
         <v>15</v>
       </c>
       <c r="C219" t="s">
+        <v>504</v>
+      </c>
+      <c r="D219" t="s">
         <v>505</v>
-      </c>
-      <c r="D219" t="s">
-        <v>506</v>
       </c>
       <c r="E219" t="s">
         <v>174</v>
       </c>
       <c r="N219" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B220" t="s">
         <v>15</v>
       </c>
       <c r="C220" t="s">
+        <v>504</v>
+      </c>
+      <c r="D220" t="s">
         <v>505</v>
-      </c>
-      <c r="D220" t="s">
-        <v>506</v>
       </c>
       <c r="E220" t="s">
         <v>174</v>
       </c>
       <c r="N220" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B221" t="s">
         <v>15</v>
       </c>
       <c r="C221" t="s">
+        <v>504</v>
+      </c>
+      <c r="D221" t="s">
         <v>505</v>
-      </c>
-      <c r="D221" t="s">
-        <v>506</v>
       </c>
       <c r="E221" t="s">
         <v>174</v>
       </c>
       <c r="N221" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B222" t="s">
         <v>15</v>
       </c>
       <c r="C222" t="s">
+        <v>504</v>
+      </c>
+      <c r="D222" t="s">
         <v>505</v>
-      </c>
-      <c r="D222" t="s">
-        <v>506</v>
       </c>
       <c r="E222" t="s">
         <v>174</v>
       </c>
       <c r="N222" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B223" t="s">
         <v>15</v>
       </c>
       <c r="C223" t="s">
+        <v>504</v>
+      </c>
+      <c r="D223" t="s">
         <v>505</v>
-      </c>
-      <c r="D223" t="s">
-        <v>506</v>
       </c>
       <c r="E223" t="s">
         <v>174</v>
       </c>
       <c r="N223" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="224" spans="1:14">
       <c r="A224" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B224" t="s">
         <v>15</v>
       </c>
       <c r="C224" t="s">
+        <v>504</v>
+      </c>
+      <c r="D224" t="s">
         <v>505</v>
-      </c>
-      <c r="D224" t="s">
-        <v>506</v>
       </c>
       <c r="E224" t="s">
         <v>174</v>
       </c>
       <c r="N224" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="225" spans="1:14">
       <c r="A225" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B225" t="s">
         <v>15</v>
       </c>
       <c r="C225" t="s">
+        <v>504</v>
+      </c>
+      <c r="D225" t="s">
         <v>505</v>
-      </c>
-      <c r="D225" t="s">
-        <v>506</v>
       </c>
       <c r="E225" t="s">
         <v>174</v>
       </c>
       <c r="N225" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="226" spans="1:14">
       <c r="A226" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B226" t="s">
         <v>15</v>
       </c>
       <c r="C226" t="s">
+        <v>504</v>
+      </c>
+      <c r="D226" t="s">
         <v>505</v>
-      </c>
-      <c r="D226" t="s">
-        <v>506</v>
       </c>
       <c r="E226" t="s">
         <v>174</v>
       </c>
       <c r="N226" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B227" t="s">
         <v>15</v>
@@ -9133,12 +9133,12 @@
         <v>174</v>
       </c>
       <c r="N227" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="228" spans="1:14">
       <c r="A228" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B228" t="s">
         <v>15</v>
@@ -9153,12 +9153,12 @@
         <v>174</v>
       </c>
       <c r="N228" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="229" spans="1:14">
       <c r="A229" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B229" t="s">
         <v>15</v>
@@ -9173,126 +9173,126 @@
         <v>174</v>
       </c>
       <c r="N229" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="236" spans="1:14" s="7" customFormat="1">
       <c r="A236" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C236" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="B236" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C236" s="7" t="s">
+      <c r="D236" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="D236" s="7" t="s">
+      <c r="M236" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="M236" s="8" t="s">
+      <c r="N236" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="N236" s="7" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="237" spans="1:14" s="7" customFormat="1">
       <c r="A237" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B237" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E237" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="238" spans="1:14" s="7" customFormat="1">
       <c r="A238" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B238" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E238" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="239" spans="1:14" s="7" customFormat="1">
       <c r="A239" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B239" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E239" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="240" spans="1:14" s="7" customFormat="1">
       <c r="A240" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B240" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E240" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="241" spans="1:14" s="7" customFormat="1">
       <c r="A241" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B241" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E241" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="242" spans="1:14" s="7" customFormat="1">
       <c r="A242" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B242" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E242" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="243" spans="1:14" s="7" customFormat="1">
       <c r="A243" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B243" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E243" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="244" spans="1:14" s="7" customFormat="1">
       <c r="A244" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B244" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E244" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="245" spans="1:14" s="7" customFormat="1">
       <c r="A245" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="B245" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D245" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="B245" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D245" s="7" t="s">
-        <v>541</v>
       </c>
       <c r="G245" s="7" t="s">
         <v>75</v>
@@ -9304,24 +9304,24 @@
         <v>110</v>
       </c>
       <c r="J245" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K245" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L245" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="M245" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="M245" s="7" t="s">
+      <c r="N245" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="N245" s="7" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="246" spans="1:14" s="7" customFormat="1">
       <c r="A246" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B246" s="7" t="s">
         <v>15</v>
@@ -9339,12 +9339,12 @@
         <v>21</v>
       </c>
       <c r="L246" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="247" spans="1:14" s="7" customFormat="1">
       <c r="A247" s="11" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B247" s="7" t="s">
         <v>15</v>
@@ -9362,12 +9362,12 @@
         <v>21</v>
       </c>
       <c r="L247" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="248" spans="1:14" s="7" customFormat="1">
       <c r="A248" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B248" s="7" t="s">
         <v>15</v>
@@ -9379,15 +9379,15 @@
         <v>60</v>
       </c>
       <c r="I248" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="L248" s="7" t="s">
         <v>551</v>
-      </c>
-      <c r="L248" s="7" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="249" spans="1:14" s="7" customFormat="1">
       <c r="A249" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B249" s="7" t="s">
         <v>15</v>
@@ -9396,7 +9396,7 @@
         <v>126</v>
       </c>
       <c r="D249" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I249" s="7" t="s">
         <v>318</v>
@@ -9405,48 +9405,48 @@
         <v>23</v>
       </c>
       <c r="L249" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="M249" s="7" t="s">
         <v>554</v>
-      </c>
-      <c r="M249" s="7" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="250" spans="1:14" s="7" customFormat="1">
       <c r="A250" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B250" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E250" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="251" spans="1:14" s="7" customFormat="1">
       <c r="A251" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B251" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E251" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="252" spans="1:14" s="7" customFormat="1">
       <c r="A252" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B252" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E252" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="253" spans="1:14" s="7" customFormat="1">
       <c r="A253" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B253" s="7" t="s">
         <v>15</v>
@@ -9454,7 +9454,7 @@
     </row>
     <row r="254" spans="1:14" s="7" customFormat="1">
       <c r="A254" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B254" s="7" t="s">
         <v>15</v>
